--- a/Outside_shaded_big.xlsx
+++ b/Outside_shaded_big.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batra\Documents\Emily Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto\OneDrive\Documents\Emily_Capstone\Museum_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA844DF-5CFA-4E0D-821C-4A77590A2702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957C5F64-75FD-42BF-A97F-64B9DB4710C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId1"/>
@@ -136,13 +136,7 @@
     <t>nape_full</t>
   </si>
   <si>
-    <t>poorwill_ventral_7_2024-01-16_11-30-01</t>
-  </si>
-  <si>
     <t>belly_dark</t>
-  </si>
-  <si>
-    <t>poorwill_dorsal_8_2024-01-16_11-30-51</t>
   </si>
   <si>
     <t>back_light</t>
@@ -155,9 +149,6 @@
   </si>
   <si>
     <t>back_brown</t>
-  </si>
-  <si>
-    <t>blackbird_ventral_2_10_2024-01-16_11-32-23</t>
   </si>
   <si>
     <t>throat1</t>
@@ -190,9 +181,6 @@
     <t>back2</t>
   </si>
   <si>
-    <t>turacoe_dorsal_13_2024-01-16_11-35-20</t>
-  </si>
-  <si>
     <t>green_back</t>
   </si>
   <si>
@@ -203,9 +191,6 @@
   </si>
   <si>
     <t>back_fulll</t>
-  </si>
-  <si>
-    <t>monal_dorsal_1_15_2024-01-16_11-37-00</t>
   </si>
   <si>
     <t>mantle1</t>
@@ -220,19 +205,10 @@
     <t>back4</t>
   </si>
   <si>
-    <t>monal_dorsal_2_16_2024-01-16_11-37-31</t>
-  </si>
-  <si>
-    <t>monal_dorsal_3_17_2024-01-16_11-38-01</t>
-  </si>
-  <si>
     <t>head_green</t>
   </si>
   <si>
     <t>head_dark</t>
-  </si>
-  <si>
-    <t>Gallus_ventral_18_2024-01-16_11-39-27</t>
   </si>
   <si>
     <t>throat_light</t>
@@ -259,31 +235,55 @@
     <t>breast_full2</t>
   </si>
   <si>
-    <t>corvid_ventral_19_2024-01-16_11-40-24</t>
-  </si>
-  <si>
     <t>throat</t>
   </si>
   <si>
-    <t>European.starling_ventral_2_2024-01-16_11-25-25</t>
+    <t>Corvus.corax_ventral_19_2024-01-16_11-40-24</t>
   </si>
   <si>
-    <t>Stellar's.Jay_ventral_3_2024-01-16_11-26-09</t>
+    <t>Euphagus.carolinus_ventral_2_10_2024-01-16_11-32-23</t>
   </si>
   <si>
-    <t>African.starling_ventral_4_2024-01-16_11-27-38</t>
+    <t>Gallus.sonneratii_ventral_18_2024-01-16_11-39-27</t>
   </si>
   <si>
-    <t>California.quail_ventral_5_2024-01-16_11-28-35</t>
+    <t>Lophoporus.impeyanus_dorsal_1_15_2024-01-16_11-37-00</t>
   </si>
   <si>
-    <t>California.quail_dorsal_6_2024-01-16_11-29-06</t>
+    <t>Lophoporus.impeyanus_dorsal_2_16_2024-01-16_11-37-31</t>
   </si>
   <si>
-    <t>Rainbow.lorakeet_ventral_11_2024-01-16_11-33-05</t>
+    <t>Lophoporus.impeyanus_dorsal_3_17_2024-01-16_11-38-01</t>
   </si>
   <si>
-    <t>Rainbow.lorakeet_dorsal_12_2024-01-16_11-33-32</t>
+    <t>Callipepla.californica_ventral_5_2024-01-16_11-28-35</t>
+  </si>
+  <si>
+    <t>Callipepla.californica_dorsal_6_2024-01-16_11-29-06</t>
+  </si>
+  <si>
+    <t>Phalaenoptilus.nuttallii_ventral_7_2024-01-16_11-30-01</t>
+  </si>
+  <si>
+    <t>Phalaenoptilus.nuttallii_dorsal_8_2024-01-16_11-30-51</t>
+  </si>
+  <si>
+    <t>Cyanocitta.stelleri_ventral_3_2024-01-16_11-26-09</t>
+  </si>
+  <si>
+    <t>Sturnus.vulgaris_ventral_2_2024-01-16_11-25-25</t>
+  </si>
+  <si>
+    <t>Lamprotornis.splendidus_ventral_4_2024-01-16_11-27-38</t>
+  </si>
+  <si>
+    <t>Tauraco.harlaubi_dorsal_13_2024-01-16_11-35-20</t>
+  </si>
+  <si>
+    <t>Trichoglossus.moluccanus_ventral_11_2024-01-16_11-33-05</t>
+  </si>
+  <si>
+    <t>Trichoglossus.moluccanus_dorsal_12_2024-01-16_11-33-32</t>
   </si>
 </sst>
 </file>
@@ -654,16 +654,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:MB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -688,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:340" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>20</v>
       </c>
@@ -696,7 +696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2722,9 +2722,9 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -3735,9 +3735,9 @@
         <v>4.4132526963949203E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -4748,9 +4748,9 @@
         <v>4.9905195832252502E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -5761,7 +5761,7 @@
         <v>0.11012501269578934</v>
       </c>
     </row>
-    <row r="10" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -6774,9 +6774,9 @@
         <v>6.2069125473499298E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7787,9 +7787,9 @@
         <v>6.5209589898586273E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -8800,9 +8800,9 @@
         <v>3.0150650069117546E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -9813,9 +9813,9 @@
         <v>5.7843860238790512E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -10826,9 +10826,9 @@
         <v>6.7681871354579926E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -11839,9 +11839,9 @@
         <v>5.2995301783084869E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -12852,9 +12852,9 @@
         <v>3.3831514418125153E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -13865,9 +13865,9 @@
         <v>0.1454479992389679</v>
       </c>
     </row>
-    <row r="18" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -14878,9 +14878,9 @@
         <v>1.3654183596372604E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -15891,9 +15891,9 @@
         <v>2.639920637011528E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -16904,9 +16904,9 @@
         <v>8.2591474056243896E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -17917,12 +17917,12 @@
         <v>8.3343625068664551E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
       </c>
       <c r="C22">
         <v>279</v>
@@ -18930,9 +18930,9 @@
         <v>4.2699437588453293E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -19943,12 +19943,12 @@
         <v>0.17392930388450623</v>
       </c>
     </row>
-    <row r="24" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>191</v>
@@ -20956,12 +20956,12 @@
         <v>8.7473861873149872E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
       </c>
       <c r="C25">
         <v>208</v>
@@ -21969,12 +21969,12 @@
         <v>1.9150473177433014E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>169</v>
@@ -22982,12 +22982,12 @@
         <v>0.13498422503471375</v>
       </c>
     </row>
-    <row r="27" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>145</v>
@@ -23995,12 +23995,12 @@
         <v>7.067851722240448E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>188</v>
@@ -25008,12 +25008,12 @@
         <v>3.8751356303691864E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>182</v>
@@ -26021,12 +26021,12 @@
         <v>3.8639616221189499E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>171</v>
@@ -26041,7 +26041,7 @@
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -27034,12 +27034,12 @@
         <v>5.2810061722993851E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>301</v>
@@ -27054,7 +27054,7 @@
         <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -28047,12 +28047,12 @@
         <v>4.8437349498271942E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>207</v>
@@ -28067,7 +28067,7 @@
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -29060,12 +29060,12 @@
         <v>5.7350605726242065E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>211</v>
@@ -29080,7 +29080,7 @@
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -30073,12 +30073,12 @@
         <v>5.7891003787517548E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>222</v>
@@ -30093,7 +30093,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -31086,12 +31086,12 @@
         <v>5.3278684616088867E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>211</v>
@@ -31106,7 +31106,7 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -32099,12 +32099,12 @@
         <v>5.445273220539093E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>196</v>
@@ -32119,7 +32119,7 @@
         <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -33112,12 +33112,12 @@
         <v>6.0017552226781845E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>172</v>
@@ -33132,7 +33132,7 @@
         <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -34125,12 +34125,12 @@
         <v>5.8999031782150269E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>149</v>
@@ -34145,7 +34145,7 @@
         <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -35138,12 +35138,12 @@
         <v>5.6016609072685242E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>57</v>
@@ -36151,12 +36151,12 @@
         <v>5.1708836108446121E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>184</v>
@@ -37164,12 +37164,12 @@
         <v>6.7594408988952637E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>64</v>
@@ -38177,12 +38177,12 @@
         <v>4.4468574225902557E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
         <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
       </c>
       <c r="C42">
         <v>62</v>
@@ -39190,12 +39190,12 @@
         <v>8.3814404904842377E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>221</v>
@@ -40203,12 +40203,12 @@
         <v>3.685455396771431E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>261</v>
@@ -41216,12 +41216,12 @@
         <v>3.5785447806119919E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>84</v>
@@ -42229,12 +42229,12 @@
         <v>4.5619510114192963E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>371</v>
@@ -43242,12 +43242,12 @@
         <v>6.1447765678167343E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C47">
         <v>468</v>
@@ -44255,12 +44255,12 @@
         <v>5.7230796664953232E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>106</v>
@@ -45268,12 +45268,12 @@
         <v>0.10061530023813248</v>
       </c>
     </row>
-    <row r="49" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>117</v>
@@ -46281,12 +46281,12 @@
         <v>5.8547332882881165E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>48</v>
@@ -47294,12 +47294,12 @@
         <v>6.7120976746082306E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51">
         <v>175</v>
@@ -48307,12 +48307,12 @@
         <v>6.006496399641037E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>217</v>
@@ -49320,12 +49320,12 @@
         <v>4.9249481409788132E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>197</v>
@@ -50333,12 +50333,12 @@
         <v>4.3153975158929825E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C54">
         <v>256</v>
@@ -51346,12 +51346,12 @@
         <v>0.12736116349697113</v>
       </c>
     </row>
-    <row r="55" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>256</v>
@@ -52359,12 +52359,12 @@
         <v>5.1392484456300735E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <v>201</v>
@@ -53372,12 +53372,12 @@
         <v>4.1001651436090469E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C57">
         <v>222</v>
@@ -54385,12 +54385,12 @@
         <v>4.5822419226169586E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C58">
         <v>182</v>
@@ -55398,12 +55398,12 @@
         <v>0.23197059333324432</v>
       </c>
     </row>
-    <row r="59" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C59">
         <v>160</v>
@@ -56411,12 +56411,12 @@
         <v>0.24842621386051178</v>
       </c>
     </row>
-    <row r="60" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>110</v>
@@ -57424,12 +57424,12 @@
         <v>0.13139262795448303</v>
       </c>
     </row>
-    <row r="61" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
         <v>70</v>
-      </c>
-      <c r="B61" t="s">
-        <v>78</v>
       </c>
       <c r="C61">
         <v>339</v>
@@ -58437,12 +58437,12 @@
         <v>0.13300079107284546</v>
       </c>
     </row>
-    <row r="62" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C62">
         <v>210</v>
